--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Ephb6</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1051366666666667</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N2">
-        <v>0.31541</v>
+        <v>0.19733</v>
       </c>
       <c r="O2">
-        <v>0.05266403705467093</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P2">
-        <v>0.06261614837928776</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q2">
-        <v>0.01811042165333333</v>
+        <v>0.01616582173888889</v>
       </c>
       <c r="R2">
-        <v>0.16299379488</v>
+        <v>0.14549239565</v>
       </c>
       <c r="S2">
-        <v>0.005308526823902744</v>
+        <v>0.004435230663733492</v>
       </c>
       <c r="T2">
-        <v>0.006993713003712725</v>
+        <v>0.005889401640866294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9215286666666668</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N3">
         <v>2.764586</v>
       </c>
       <c r="O3">
-        <v>0.4616031817153055</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P3">
-        <v>0.5488339849189997</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q3">
-        <v>0.1587388420053333</v>
+        <v>0.2264825645255556</v>
       </c>
       <c r="R3">
-        <v>1.428649578048</v>
+        <v>2.03834308073</v>
       </c>
       <c r="S3">
-        <v>0.04652952962171775</v>
+        <v>0.06213741752256788</v>
       </c>
       <c r="T3">
-        <v>0.0613002791860821</v>
+        <v>0.08251029911678906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H4">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I4">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J4">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9518975000000001</v>
+        <v>1.1590695</v>
       </c>
       <c r="N4">
-        <v>1.903795</v>
+        <v>2.318139</v>
       </c>
       <c r="O4">
-        <v>0.4768152424994321</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P4">
-        <v>0.3779471488023404</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q4">
-        <v>0.16397005576</v>
+        <v>0.2848625792325</v>
       </c>
       <c r="R4">
-        <v>0.9838203345600001</v>
+        <v>1.709175475395</v>
       </c>
       <c r="S4">
-        <v>0.04806290300582698</v>
+        <v>0.07815447100488897</v>
       </c>
       <c r="T4">
-        <v>0.04221361354396903</v>
+        <v>0.0691858897803484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +711,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.036691</v>
+      </c>
+      <c r="H5">
+        <v>3.110073</v>
+      </c>
+      <c r="I5">
+        <v>0.6104826439049008</v>
+      </c>
+      <c r="J5">
+        <v>0.6647217777192627</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.172256</v>
-      </c>
-      <c r="H5">
-        <v>0.516768</v>
-      </c>
-      <c r="I5">
-        <v>0.1007998459820299</v>
-      </c>
-      <c r="J5">
-        <v>0.1116918428350044</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.01780266666666667</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N5">
-        <v>0.053408</v>
+        <v>0.19733</v>
       </c>
       <c r="O5">
-        <v>0.008917538730591501</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P5">
-        <v>0.01060271789937225</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q5">
-        <v>0.003066616149333333</v>
+        <v>0.06819007834333334</v>
       </c>
       <c r="R5">
-        <v>0.027599545344</v>
+        <v>0.61371070509</v>
       </c>
       <c r="S5">
-        <v>0.0008988865305824095</v>
+        <v>0.01870852786302767</v>
       </c>
       <c r="T5">
-        <v>0.001184237101240574</v>
+        <v>0.0248424587238849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>3.110073</v>
       </c>
       <c r="I6">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J6">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1051366666666667</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N6">
-        <v>0.31541</v>
+        <v>2.764586</v>
       </c>
       <c r="O6">
-        <v>0.05266403705467093</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P6">
-        <v>0.06261614837928776</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q6">
-        <v>0.1089942361033333</v>
+        <v>0.9553404749753334</v>
       </c>
       <c r="R6">
-        <v>0.9809481249299998</v>
+        <v>8.598064274778</v>
       </c>
       <c r="S6">
-        <v>0.03194839066040405</v>
+        <v>0.2621057832602047</v>
       </c>
       <c r="T6">
-        <v>0.04209037320924641</v>
+        <v>0.3480419277029852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +850,45 @@
         <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9215286666666668</v>
+        <v>1.1590695</v>
       </c>
       <c r="N7">
-        <v>2.764586</v>
+        <v>2.318139</v>
       </c>
       <c r="O7">
-        <v>0.4616031817153055</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P7">
-        <v>0.5488339849189997</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q7">
-        <v>0.9553404749753335</v>
+        <v>1.2015969190245</v>
       </c>
       <c r="R7">
-        <v>8.598064274778</v>
+        <v>7.209581514147</v>
       </c>
       <c r="S7">
-        <v>0.2800294015480924</v>
+        <v>0.3296683327816685</v>
       </c>
       <c r="T7">
-        <v>0.3689244364765154</v>
+        <v>0.2918373912923926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +897,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.036691</v>
+        <v>0.4156905</v>
       </c>
       <c r="H8">
-        <v>3.110073</v>
+        <v>0.831381</v>
       </c>
       <c r="I8">
-        <v>0.6066453019398833</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J8">
-        <v>0.6721967782861762</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9518975000000001</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N8">
-        <v>1.903795</v>
+        <v>0.19733</v>
       </c>
       <c r="O8">
-        <v>0.4768152424994321</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P8">
-        <v>0.3779471488023404</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q8">
-        <v>0.9868235711725001</v>
+        <v>0.027342735455</v>
       </c>
       <c r="R8">
-        <v>5.920941427035</v>
+        <v>0.16405641273</v>
       </c>
       <c r="S8">
-        <v>0.2892577267556067</v>
+        <v>0.007501711987126253</v>
       </c>
       <c r="T8">
-        <v>0.2540548557873792</v>
+        <v>0.006640856396721928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +959,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4156905</v>
+      </c>
+      <c r="H9">
+        <v>0.831381</v>
+      </c>
+      <c r="I9">
+        <v>0.2447902369039089</v>
+      </c>
+      <c r="J9">
+        <v>0.1776926317427335</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.036691</v>
-      </c>
-      <c r="H9">
-        <v>3.110073</v>
-      </c>
-      <c r="I9">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J9">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01780266666666667</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N9">
-        <v>0.053408</v>
+        <v>2.764586</v>
       </c>
       <c r="O9">
-        <v>0.008917538730591501</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P9">
-        <v>0.01060271789937225</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q9">
-        <v>0.01845586430933334</v>
+        <v>0.383070712211</v>
       </c>
       <c r="R9">
-        <v>0.166102778784</v>
+        <v>2.298424273266</v>
       </c>
       <c r="S9">
-        <v>0.005409782975780285</v>
+        <v>0.1050987074222947</v>
       </c>
       <c r="T9">
-        <v>0.007127112813035201</v>
+        <v>0.09303815244710834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,232 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H10">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I10">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J10">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1051366666666667</v>
+        <v>1.1590695</v>
       </c>
       <c r="N10">
-        <v>0.31541</v>
+        <v>2.318139</v>
       </c>
       <c r="O10">
-        <v>0.05266403705467093</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P10">
-        <v>0.06261614837928776</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q10">
-        <v>0.05256249824833333</v>
+        <v>0.48181417998975</v>
       </c>
       <c r="R10">
-        <v>0.31537498949</v>
+        <v>1.927256719959</v>
       </c>
       <c r="S10">
-        <v>0.01540711957036414</v>
+        <v>0.1321898174944879</v>
       </c>
       <c r="T10">
-        <v>0.01353206216632863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4999445</v>
-      </c>
-      <c r="H11">
-        <v>0.999889</v>
-      </c>
-      <c r="I11">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J11">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.9215286666666668</v>
-      </c>
-      <c r="N11">
-        <v>2.764586</v>
-      </c>
-      <c r="O11">
-        <v>0.4616031817153055</v>
-      </c>
-      <c r="P11">
-        <v>0.5488339849189997</v>
-      </c>
-      <c r="Q11">
-        <v>0.4607131884923334</v>
-      </c>
-      <c r="R11">
-        <v>2.764279130954001</v>
-      </c>
-      <c r="S11">
-        <v>0.1350442505454955</v>
-      </c>
-      <c r="T11">
-        <v>0.1186092692564022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.4999445</v>
-      </c>
-      <c r="H12">
-        <v>0.999889</v>
-      </c>
-      <c r="I12">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J12">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.9518975000000001</v>
-      </c>
-      <c r="N12">
-        <v>1.903795</v>
-      </c>
-      <c r="O12">
-        <v>0.4768152424994321</v>
-      </c>
-      <c r="P12">
-        <v>0.3779471488023404</v>
-      </c>
-      <c r="Q12">
-        <v>0.4758959196887501</v>
-      </c>
-      <c r="R12">
-        <v>1.903583678755</v>
-      </c>
-      <c r="S12">
-        <v>0.1394946127379985</v>
-      </c>
-      <c r="T12">
-        <v>0.0816786794709921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4999445</v>
-      </c>
-      <c r="H13">
-        <v>0.999889</v>
-      </c>
-      <c r="I13">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J13">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01780266666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.053408</v>
-      </c>
-      <c r="O13">
-        <v>0.008917538730591501</v>
-      </c>
-      <c r="P13">
-        <v>0.01060271789937225</v>
-      </c>
-      <c r="Q13">
-        <v>0.008900345285333334</v>
-      </c>
-      <c r="R13">
-        <v>0.053402071712</v>
-      </c>
-      <c r="S13">
-        <v>0.002608869224228808</v>
-      </c>
-      <c r="T13">
-        <v>0.002291367985096476</v>
+        <v>0.07801362289890322</v>
       </c>
     </row>
   </sheetData>
